--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767856.720391549</v>
+        <v>1765969.138875147</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>268.7197286324185</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>309.7879596312688</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>34.10050473850163</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142887</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598869</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>86.85904583823142</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.85099796338696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>105.674053125926</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.7625865374715</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.07189110171366</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>206.8064269214858</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="V16" t="n">
-        <v>55.51848634874961</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>259.9755028682013</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>36.84806229728062</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.14296480107379</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.89657674137928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>161.4046520073177</v>
+        <v>192.3228038217181</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>132.5177247248038</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>100.4236980067266</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>78.22041541354976</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>94.16120198236248</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
         <v>231.319741708034</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329102</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373815</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.569074795015</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.606557854603</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>743.3408592478529</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>743.3408592478529</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1680.629330532365</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1327.86067526225</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1327.86067526225</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>1327.86067526225</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>88.38793610167923</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>709.5665374816298</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>709.5665374816298</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>709.5665374816298</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>709.5665374816298</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816298</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y7" t="n">
-        <v>688.885551920185</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1838.152798564254</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1469.190281623843</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1110.924583017092</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>725.136330418848</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>314.1504256292405</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2224.752638628376</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>631.4729001261409</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>483.5598065437479</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>483.5598065437479</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>315.3844848635684</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>164.9664764115118</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799359</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.5090525528009</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="C16" t="n">
-        <v>415.5090525528009</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>1153.708352631309</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>864.2911825943484</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>636.301631696331</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.5090525528009</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1012.52933729872</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>757.8448490928332</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.567366824712</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X19" t="n">
-        <v>944.5778159266949</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.7852367831648</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>672.7698012891901</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>503.8336183612832</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5941,19 +5941,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>241.980548233671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X22" t="n">
-        <v>241.980548233671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>854.4182661194299</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550798</v>
+        <v>731.3177283550791</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181192</v>
+        <v>441.9005583181185</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6221,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,7 +6260,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.5451177528694</v>
+        <v>865.4928396191511</v>
       </c>
       <c r="C28" t="n">
-        <v>345.5451177528694</v>
+        <v>696.5566566912441</v>
       </c>
       <c r="D28" t="n">
-        <v>345.5451177528694</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>345.5451177528694</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>198.6551702549591</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>198.6551702549591</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811264</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>755.1831334811264</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X28" t="n">
-        <v>527.1935825831091</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.1935825831091</v>
+        <v>1047.141304449391</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,22 +6449,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.3437276440244</v>
+        <v>439.532429954216</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440244</v>
+        <v>326.3571123076797</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440244</v>
+        <v>232.0013381767146</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1240.148031427289</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1006.491726671699</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>834.2630410550528</v>
+        <v>730.4517433652445</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.2313271928933</v>
+        <v>565.4200295030851</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6713,13 +6713,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108342</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229683</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506737</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083217</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504524</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045218</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010328</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,34 +6950,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,10 +7108,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649685</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582209</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.30006332127833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>85.30006332127746</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>43.34735436255833</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.7411341369035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="V16" t="n">
-        <v>196.6191569750784</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>26.26184953037608</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>249.6749360393104</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>61.47250821713857</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.6880766107155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>64.30500338171942</v>
+        <v>33.38685156731901</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>16.09774829340856</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>48.49013036080947</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>13.01029060446244</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>102.7731847129085</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="11">
@@ -26317,37 +26317,37 @@
         <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="I2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="K2" t="n">
-        <v>508527.671681588</v>
+        <v>508527.6716815878</v>
       </c>
       <c r="L2" t="n">
+        <v>513151.1061651764</v>
+      </c>
+      <c r="M2" t="n">
         <v>513151.1061651765</v>
       </c>
-      <c r="M2" t="n">
-        <v>513151.1061651764</v>
-      </c>
       <c r="N2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="O2" t="n">
         <v>513151.1061651764</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106719</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819124</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-325308.7188993015</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152435</v>
+        <v>264659.1603152434</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152433</v>
+        <v>264659.1603152431</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403473</v>
+        <v>-150633.1044663199</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365486</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365484</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365487</v>
+        <v>374526.9320105762</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365482</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>198103.7128179835</v>
       </c>
       <c r="K6" t="n">
-        <v>327397.6277474524</v>
+        <v>327379.1340095179</v>
       </c>
       <c r="L6" t="n">
-        <v>360499.698716093</v>
+        <v>360499.6987160929</v>
       </c>
       <c r="M6" t="n">
         <v>236041.5902831227</v>
       </c>
       <c r="N6" t="n">
-        <v>370842.6055169599</v>
+        <v>370842.60551696</v>
       </c>
       <c r="O6" t="n">
-        <v>370842.6055169599</v>
+        <v>370842.6055169598</v>
       </c>
       <c r="P6" t="n">
-        <v>326680.0002141143</v>
+        <v>326680.0002141141</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,28 +26978,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>138.1563171092929</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>17.96429883886606</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.8651170538366</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>128.2883697226015</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>85.9894884579731</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858218</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>138.8506095508057</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.7336553887078</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.110116894869</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>7.478382179941548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946054</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>2.793929914413997</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245897</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
